--- a/statistics/HistoricalDistanceData/historical_distance/Q7570228-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q7570228-en.xlsx
@@ -31,22 +31,22 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Canada's top ten weather stories of 2013</t>
+  </si>
+  <si>
     <t>Top Ten Weather Stories</t>
   </si>
   <si>
-    <t>Canada's top ten weather stories of 2013</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://www.ec.gc.ca/meteo-weather/default.asp?lang=En&amp;n=5BA5EAFC-1&amp;offset=3&amp;toc=show</t>
+  </si>
+  <si>
     <t>http://www.ec.gc.ca/meteo-weather/default.asp?lang=En&amp;n=B0F843F5-1</t>
-  </si>
-  <si>
-    <t>http://www.ec.gc.ca/meteo-weather/default.asp?lang=En&amp;n=5BA5EAFC-1&amp;offset=3&amp;toc=show</t>
   </si>
 </sst>
 </file>
